--- a/DOM_Banner/output/test/H H Sherry Chow_2023.xlsx
+++ b/DOM_Banner/output/test/H H Sherry Chow_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Gynecology and Obstetrics, Johns Hopkins School of Medicine, Baltimore, Maryland, USA; University of Arizona Cancer Center, Tucson, Arizona, USA; Stony Brook Medicine, Stony Brook, New York, USA; Breast and Gynecologic Cancer Research Group, Division of Cancer Prevention, Bethesda, Maryland, USA; Breast and Gynecologic Cancer Research Group, Division of Cancer Prevention, Bethesda, Maryland, USA; Breast and Gynecologic Cancer Research Group, Division of Cancer Prevention, Bethesda, Maryland, USA; Department of Pathology and Laboratory Medicine, University of North Carolina, Chapel Hill, North Carolina, USA; University of Arizona Cancer Center, Tucson, Arizona, USA; University of Arizona Cancer Center, Tucson, Arizona, USA; Department of Obstetrics and Gynecology, University of North Carolina, Chapel Hill, North Carolina, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4383871990</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Feasibility of 5‐fluorouracil and imiquimod for the topical treatment of cervical intraepithelial neoplasias (&lt;scp&gt;CIN&lt;/scp&gt;) 2/3</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-07-11</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>International Journal of Gynecology &amp; Obstetrics</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/ijgo.14983</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37431689</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/ijgo.14983</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,39 +539,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Urology, UC San Diego Moores Cancer Center, La Jolla, CA, USA; National Cancer Institute, Bethesda, MD, USA; Brady Urological Institute, Johns Hopkins School of Medicine, Baltimore, MD, USA; Department of Urology, UC Irvine, Orange, CA, USA; Department of Urology, University of Southern California, Los Angeles, CA, USA; Division of Urology, Cedars-Sinai Medical Center, Los Angeles, CA, USA; National Cancer Institute, Bethesda, MD, USA; National Cancer Institute, Bethesda, MD, USA; Department of Urology, UC San Diego Moores Cancer Center, La Jolla, CA, USA; University of Arizona Cancer Center, Tucson, AZ, USA; National Cancer Institute, Bethesda, MD, USA; National Cancer Institute, Bethesda, MD, USA; National Cancer Institute, Bethesda, MD, USA; National Cancer Institute, Bethesda, MD, USA; National Cancer Institute, Bethesda, MD, USA; National Cancer Institute, Bethesda, MD, USA; National Cancer Institute, Bethesda, MD, USA; University of Arizona Cancer Center, Tucson, AZ, USA; University of Arizona Cancer Center, Tucson, AZ, USA; National Cancer Institute, Bethesda, MD, USA; University of Arizona Cancer Center, Tucson, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4311312581</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>A Phase 2, Double-blind, Randomized Controlled Trial of PROSTVAC in Prostate Cancer Patients on Active Surveillance</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>European Urology Focus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.euf.2022.12.002</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -569,35 +579,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36517408</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.euf.2022.12.002</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,24 +626,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4361814935</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Supplemental Methods from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -636,50 +651,55 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/1078-0432.22481177</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1078-0432.22481177</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,24 +713,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4361814968</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Figure S1 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -718,50 +738,55 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/1078-0432.22481186.v1</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1078-0432.22481186.v1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,24 +800,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4361814985</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Figure S3 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -800,50 +825,55 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/1078-0432.22481180.v1</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1078-0432.22481180.v1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,24 +887,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4361814998</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Supplemental Methods from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -882,50 +912,55 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/1078-0432.22481177.v1</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1078-0432.22481177.v1</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,24 +974,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4361815022</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Data from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -964,50 +999,55 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/1078-0432.c.6530630</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1078-0432.c.6530630</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,24 +1061,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361815056</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>https://openalex.org/W4361815215</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>Table S1 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1046,50 +1086,55 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481174.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22481174</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22481174.v1</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22481174</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,24 +1148,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361815064</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Table S2 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+          <t>https://openalex.org/W4361815298</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>Figure S2 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1128,50 +1173,55 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481171.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22481183</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22481171.v1</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22481183</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,24 +1235,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361815215</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Table S1 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+          <t>https://openalex.org/W4361815443</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>Figure S2 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1210,50 +1260,55 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481174</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22481183.v1</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22481174</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22481183.v1</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,24 +1322,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361815217</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Figure S1 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+          <t>https://openalex.org/W4361815506</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>Figure S3 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1292,50 +1347,55 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481186</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22481180</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22481186</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22481180</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,24 +1409,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361815298</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Figure S2 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+          <t>https://openalex.org/W4361890113</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>Table S3 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1374,50 +1434,55 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481183</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22481168</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22481183</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22481168</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1426,80 +1491,85 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Patricia A. Thompson, Chuan Huang, Jie Yang, Betsy C. Wertheim, Denise J. Roe, Xiaoyue Zhang, Jie Ding, Pavani Chalasani, Christina Preece, Jessica Martínez, H.‐H. Sherry Chow, Alison Stopeck</t>
+          <t>Srinivasan Vedantham, Hsin Wu Tseng, Zhiyang Fu, H.‐H. Sherry Chow</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361815443</t>
+          <t>Department of Biomedical Engineering, University of Arizona, Tucson, AZ 85724, USA; Department of Medical Imaging, University of Arizona, Tucson, AZ 85724, USA; Department of Medical Imaging, University of Arizona, Tucson, AZ 85724, USA; Department of Medical Imaging, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, University of Arizona, Tucson, AZ 85724, USA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Figure S2 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+          <t>https://openalex.org/W4388226308</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Dedicated Cone-Beam Breast CT: Reproducibility of Volumetric Glandular Fraction with Advanced Image Reconstruction Methods</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tomography</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481183.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>https://doi.org/10.3390/tomography9060160</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481183.v1</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37987346</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/tomography9060160</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1513,24 +1583,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361815506</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Figure S3 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+          <t>https://openalex.org/W4361815056</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>Table S1 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1538,50 +1608,55 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481180</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22481174.v1</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22481180</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22481174.v1</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1595,24 +1670,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361815613</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>https://openalex.org/W4361815064</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>Table S2 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1620,50 +1695,55 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481171</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22481171.v1</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22481171</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22481171.v1</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1677,24 +1757,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361815737</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Data from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+          <t>https://openalex.org/W4361815217</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>Figure S1 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1702,50 +1782,55 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6530630.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.22481186</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6530630.v1</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22481186</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1759,24 +1844,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361890113</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Table S3 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+          <t>https://openalex.org/W4361815613</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>Table S2 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1784,50 +1869,55 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481168</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22481171</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22481168</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22481171</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1841,24 +1931,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361890117</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Table S4 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+          <t>https://openalex.org/W4361815737</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>Data from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1866,50 +1956,55 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481165</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6530630.v1</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22481165</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.c.6530630.v1</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1923,24 +2018,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361939742</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>https://openalex.org/W4361890117</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>Table S4 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1948,50 +2043,55 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481165.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22481165</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22481165.v1</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22481165</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2005,24 +2105,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361939778</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Table S3 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+          <t>https://openalex.org/W4361939742</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>Table S4 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2030,50 +2130,55 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481168.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22481165.v1</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22481168.v1</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22481165.v1</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2082,27 +2187,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Srinivasan Vedantham, Hsin Wu Tseng, Zhiyang Fu, H.‐H. Sherry Chow</t>
+          <t>Patricia A. Thompson, Chuan Huang, Jie Yang, Betsy C. Wertheim, Denise J. Roe, Xiaoyue Zhang, Jie Ding, Pavani Chalasani, Christina Preece, Jessica Martínez, H.‐H. Sherry Chow, Alison Stopeck</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388226308</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Dedicated Cone-Beam Breast CT: Reproducibility of Volumetric Glandular Fraction with Advanced Image Reconstruction Methods</t>
+          <t>https://openalex.org/W4361939778</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>Table S3 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tomography</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2112,50 +2217,55 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/tomography9060160</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22481168.v1</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37987346</t>
-        </is>
-      </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/tomography9060160</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22481168.v1</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/test/H H Sherry Chow_2023.xlsx
+++ b/DOM_Banner/output/test/H H Sherry Chow_2023.xlsx
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361815215</t>
+          <t>https://openalex.org/W4361815056</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481174</t>
+          <t>https://doi.org/10.1158/1078-0432.22481174.v1</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481174</t>
+          <t>https://doi.org/10.1158/1078-0432.22481174.v1</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1153,12 +1153,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361815298</t>
+          <t>https://openalex.org/W4361815064</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Figure S2 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+          <t>Table S2 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481183</t>
+          <t>https://doi.org/10.1158/1078-0432.22481171.v1</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481183</t>
+          <t>https://doi.org/10.1158/1078-0432.22481171.v1</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361815443</t>
+          <t>https://openalex.org/W4361815215</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Figure S2 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+          <t>Table S1 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481183.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22481174</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481183.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22481174</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1327,12 +1327,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361815506</t>
+          <t>https://openalex.org/W4361815217</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Figure S3 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+          <t>Figure S1 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481180</t>
+          <t>https://doi.org/10.1158/1078-0432.22481186</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481180</t>
+          <t>https://doi.org/10.1158/1078-0432.22481186</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361890113</t>
+          <t>https://openalex.org/W4361815298</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Table S3 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+          <t>Figure S2 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481168</t>
+          <t>https://doi.org/10.1158/1078-0432.22481183</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481168</t>
+          <t>https://doi.org/10.1158/1078-0432.22481183</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1491,32 +1491,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Srinivasan Vedantham, Hsin Wu Tseng, Zhiyang Fu, H.‐H. Sherry Chow</t>
+          <t>Patricia A. Thompson, Chuan Huang, Jie Yang, Betsy C. Wertheim, Denise J. Roe, Xiaoyue Zhang, Jie Ding, Pavani Chalasani, Christina Preece, Jessica Martínez, H.‐H. Sherry Chow, Alison Stopeck</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Department of Biomedical Engineering, University of Arizona, Tucson, AZ 85724, USA; Department of Medical Imaging, University of Arizona, Tucson, AZ 85724, USA; Department of Medical Imaging, University of Arizona, Tucson, AZ 85724, USA; Department of Medical Imaging, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, University of Arizona, Tucson, AZ 85724, USA</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388226308</t>
+          <t>https://openalex.org/W4361815443</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Dedicated Cone-Beam Breast CT: Reproducibility of Volumetric Glandular Fraction with Advanced Image Reconstruction Methods</t>
+          <t>Figure S2 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tomography</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/tomography9060160</t>
+          <t>https://doi.org/10.1158/1078-0432.22481183.v1</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1536,12 +1536,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1561,12 +1561,12 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37987346</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/tomography9060160</t>
+          <t>https://doi.org/10.1158/1078-0432.22481183.v1</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1588,12 +1588,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361815056</t>
+          <t>https://openalex.org/W4361815506</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Table S1 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+          <t>Figure S3 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481174.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22481180</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481174.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22481180</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361815064</t>
+          <t>https://openalex.org/W4361815613</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481171.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22481171</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481171.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22481171</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1762,12 +1762,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361815217</t>
+          <t>https://openalex.org/W4361815737</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Figure S1 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+          <t>Data from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1787,12 +1787,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481186</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6530630.v1</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481186</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6530630.v1</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361815613</t>
+          <t>https://openalex.org/W4361890113</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Table S2 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+          <t>Table S3 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481171</t>
+          <t>https://doi.org/10.1158/1078-0432.22481168</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481171</t>
+          <t>https://doi.org/10.1158/1078-0432.22481168</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1936,12 +1936,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361815737</t>
+          <t>https://openalex.org/W4361890117</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Data from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+          <t>Table S4 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1961,12 +1961,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6530630.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22481165</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6530630.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22481165</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361890117</t>
+          <t>https://openalex.org/W4361939742</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481165</t>
+          <t>https://doi.org/10.1158/1078-0432.22481165.v1</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481165</t>
+          <t>https://doi.org/10.1158/1078-0432.22481165.v1</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2110,12 +2110,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361939742</t>
+          <t>https://openalex.org/W4361939778</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Table S4 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+          <t>Table S3 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481165.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22481168.v1</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481165.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22481168.v1</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2187,32 +2187,32 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Patricia A. Thompson, Chuan Huang, Jie Yang, Betsy C. Wertheim, Denise J. Roe, Xiaoyue Zhang, Jie Ding, Pavani Chalasani, Christina Preece, Jessica Martínez, H.‐H. Sherry Chow, Alison Stopeck</t>
+          <t>Srinivasan Vedantham, Hsin Wu Tseng, Zhiyang Fu, H.‐H. Sherry Chow</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>Department of Biomedical Engineering, University of Arizona, Tucson, AZ 85724, USA; Department of Medical Imaging, University of Arizona, Tucson, AZ 85724, USA; Department of Medical Imaging, University of Arizona, Tucson, AZ 85724, USA; Department of Medical Imaging, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, University of Arizona, Tucson, AZ 85724, USA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361939778</t>
+          <t>https://openalex.org/W4388226308</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Table S3 from Sulindac, a Nonselective NSAID, Reduces Breast Density in Postmenopausal Women with Breast Cancer Treated with Aromatase Inhibitors</t>
+          <t>Dedicated Cone-Beam Breast CT: Reproducibility of Volumetric Glandular Fraction with Advanced Image Reconstruction Methods</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tomography</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481168.v1</t>
+          <t>https://doi.org/10.3390/tomography9060160</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2232,12 +2232,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2257,12 +2257,12 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37987346</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481168.v1</t>
+          <t>https://doi.org/10.3390/tomography9060160</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
